--- a/src/analysis_examples/circadb/results_lomb/cosinor_10380823_lasp1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10380823_lasp1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1555864703508375, 0.29382526361580746]</t>
+          <t>[0.1536928890476547, 0.29571884491899025]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.09360659861224e-06</v>
+        <v>1.620440032823467e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.09360659861224e-06</v>
+        <v>1.620440032823467e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.779894872963232</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.31633809961085146, 0.3892624835774542]</t>
+          <t>[0.31631684988261843, 0.3892837333056872]</t>
         </is>
       </c>
       <c r="U2" t="n">
